--- a/Översikt SÄVSJÖ.xlsx
+++ b/Översikt SÄVSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45747</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44847</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>45069.67415509259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45756.67384259259</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44572.70938657408</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45722</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45168</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45824.96813657408</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>45170</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>45845.64520833334</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>45981.63106481481</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>45351.68774305555</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>45530.34611111111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45999</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>45217</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>45218.86729166667</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>45719</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44862.47</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44876.42421296296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44358.64619212963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44358.65375</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44370.46506944444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44533.4324537037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44749.55707175926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44370.47137731482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44370.47902777778</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44510.34935185185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44805.46810185185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44855.58278935185</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44349.61519675926</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44433.50209490741</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44809.32931712963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44351</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44374.81724537037</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44573.39283564815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>44603.64659722222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>44420.64608796296</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44405</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>44862.46611111111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44263</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44886.66209490741</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>44862</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>44287.45155092593</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>44532.42516203703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>44397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>44572.71422453703</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>44580.54946759259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>44315.4225</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>44341</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>44826.03600694444</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>44746.50565972222</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>44370</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>44341</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>44448</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>44370.4822337963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         <v>44281</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>44405.85179398148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44433.47172453703</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>44386</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>44608</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>44844.35899305555</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44852.46984953704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>44869.40421296296</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44857.73039351852</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44862</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44582</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44433.42069444444</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44883.29135416666</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44833</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44662.95068287037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44370.42076388889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44853</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>44791</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>44468.59461805555</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44789.39461805556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44357.3718287037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>44412.68837962963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         <v>44790.65711805555</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
         <v>44533.31344907408</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>44565</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44664.33730324074</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>44378</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>44390.35111111111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44502</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44541</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44700</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44812.39266203704</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44624</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44445.44008101852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44377</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44273</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44816.69122685185</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44851</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44789.3846412037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44798.67543981481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44861.34555555556</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>45775.67828703704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44610.5587962963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>45698.92776620371</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>45328.50096064815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>45094.85306712963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>45762.95744212963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>44664.39613425926</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>45086.42130787037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>45755.71290509259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>45252.79550925926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>44888</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>44952</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>45212.41587962963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>45201.37368055555</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>45471.41681712963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>45247.42733796296</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>45715.32950231482</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>45544.31510416666</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>45037.50251157407</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>45761.49188657408</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>45320.77788194444</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>45320</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>45764.60275462963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>45715.32063657408</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>45715.32331018519</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>45350</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
         <v>44988.38030092593</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>45098.32418981481</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>45037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>45733.60925925926</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>45198.36701388889</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>45733.61469907407</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>45534.76076388889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>45548.4799537037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>45785.79543981481</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44476.58135416666</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>45518.38491898148</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>45646.43802083333</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>45727</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>45106.66707175926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>45634.489375</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>45634.49143518518</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>45884.34023148148</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>45646.45358796296</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>45808.25930555556</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>45811.36108796296</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>45726.48827546297</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>45094.85483796296</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>45455.64677083334</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>45321.34763888889</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>45890.44004629629</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>45812.41163194444</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>45812.43444444444</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>45001</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45890.58982638889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>45040</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>45544.31252314815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>45771.32804398148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>45894.43447916667</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>45894.68030092592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>45898.60837962963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>45898.84240740741</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>45898.605625</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44269</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>45901</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>45898.60715277777</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>45898.83424768518</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>45756.81445601852</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>45903.41489583333</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>45905.35075231481</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>45824.99469907407</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>45905.35149305555</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>45905.34934027777</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>45905.35217592592</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44781.37054398148</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>45067.86534722222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>45824.601875</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>45824.96704861111</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>45825</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>45910.52884259259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>45237.31642361111</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>45706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>45706</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>45910.63605324074</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>45915.48857638889</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44447.59116898148</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>45915.48984953704</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>45267.43935185186</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>44509.67083333333</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>45919</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>45831.47387731481</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>45671</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>45228.56903935185</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>45833.57915509259</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>45167.64136574074</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>45460.62232638889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>44957</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>44995.49431712963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>45833.58010416666</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>45833.59445601852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         <v>45832.51432870371</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
         <v>45832.5195949074</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>45833.58096064815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>45834.48545138889</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>45671</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45764.614375</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>45681.38584490741</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>45679</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>45680.43269675926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>45471.41912037037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>45274.66835648148</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>45371.61538194444</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>45102</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>45834.48693287037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>45666.65113425926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>45371.68094907407</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>45931</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         <v>45547</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>45839.45849537037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>45302.62021990741</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44501.40741898148</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>45931</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>45839.44773148148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44838</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>45838</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>45748</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>44893.59326388889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>45365.46722222222</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>44929.3241550926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>45840.46835648148</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>45936.72032407407</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>44866</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>44642</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>45706.31474537037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>45841.62478009259</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>45226</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>45252.79423611111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>45792.82875</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>45524.63298611111</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>45847</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>45845.99798611111</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>45946.47351851852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>45847.87125</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>44991.40253472222</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>44442</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>45951.65298611111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>45418.40288194444</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>45951.65373842593</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>45951.65457175926</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>45211.4318287037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>45110</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44474</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>45762.47472222222</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>45329</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44833.56226851852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>45634.49747685185</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>45953.65167824074</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>45858.81921296296</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>45953.65291666667</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>45433.40761574074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>45953</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>45957.44875</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>45953.82518518518</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>45955.82673611111</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>45953.8241087963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>45534.76524305555</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>45053</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>45954</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>45959.33079861111</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>44991.44572916667</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>45959.33496527778</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>45593.67476851852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>45315.4415625</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>45001.78961805555</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>45315.45684027778</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>45881.67730324074</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44820.49834490741</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>45879.50702546296</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>45879.50917824074</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16947,7 +16947,7 @@
         <v>45015.69268518518</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>45419.46804398148</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>45881.6669212963</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17118,7 +17118,7 @@
         <v>45964</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>45684.66012731481</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17232,7 +17232,7 @@
         <v>45879.50815972222</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>45881.68104166666</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44935</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>45320.77902777777</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>45966.33341435185</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>45966.59887731481</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>45967.32032407408</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>45967.33761574074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>45054.48166666667</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>45882.51918981481</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>45969.44754629629</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>45755.62408564815</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>45694.48425925926</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>45968.29077546296</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>45971.38053240741</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>44935.41263888889</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>45973.39438657407</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>46017.76259259259</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>45975.3618287037</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>45975.36956018519</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>45975.4591087963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44977</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>45110</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>45884.38428240741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>45646</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44951.76560185185</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>45975.46883101852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         <v>45166.62247685185</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
         <v>45884.4650925926</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18900,7 +18900,7 @@
         <v>45884.4655787037</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18957,7 +18957,7 @@
         <v>45975.3566087963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19014,7 +19014,7 @@
         <v>44245</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>45460.62070601852</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>45747.44326388889</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19185,7 +19185,7 @@
         <v>46018.73722222223</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19242,7 +19242,7 @@
         <v>44970</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>45978.33645833333</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>45978.4665625</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>45980.97875</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44866</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>45981.63645833333</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>45981.64012731481</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>45981.6122800926</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>45981.59212962963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>45980.94332175926</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>45771</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>45338</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>45729.44790509259</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>45985.6597800926</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>45673.32414351852</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>45170.45388888889</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>45986.61953703704</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44414</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45632.67087962963</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45632.67179398148</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45534.7590162037</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45986.61049768519</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44886</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45575</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45989</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>45989.45053240741</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>45209.49479166666</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>46017.753125</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>45204</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20900,7 +20900,7 @@
         <v>45197.51347222222</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20957,7 +20957,7 @@
         <v>44656.81189814815</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>45993</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>45407.59642361111</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>45407.6003587963</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45301</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45607.47658564815</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>44285.7033912037</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>44826.60456018519</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21418,7 +21418,7 @@
         <v>45315.41488425926</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         <v>45994.48951388889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21532,7 +21532,7 @@
         <v>45994.49858796296</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21589,7 +21589,7 @@
         <v>44505.25526620371</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21646,7 +21646,7 @@
         <v>45446.40579861111</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21703,7 +21703,7 @@
         <v>45719.83372685185</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>45407.61017361111</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>45669.61686342592</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21874,7 +21874,7 @@
         <v>46001</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21931,7 +21931,7 @@
         <v>46000.67530092593</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
         <v>45607</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22050,7 +22050,7 @@
         <v>45764.83226851852</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22107,7 +22107,7 @@
         <v>45672.43244212963</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44426.77716435185</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>45768.83069444444</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>45226</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>46044.64081018518</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>45067.58128472222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>45240.53201388889</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>45646.39285879629</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>45771.41307870371</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>45546.32325231482</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>46008</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>46008.84853009259</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>44601</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>45755.82981481482</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>46008.31611111111</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>45706.31609953703</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>45084.73050925926</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>45037.50520833334</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>46010.66650462963</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45281</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23262,7 +23262,7 @@
         <v>45728.32645833334</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23319,7 +23319,7 @@
         <v>46010.65158564815</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23376,7 +23376,7 @@
         <v>46010.32060185185</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23433,7 +23433,7 @@
         <v>46010.65725694445</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>45237.35436342593</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>45601.50608796296</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23604,7 +23604,7 @@
         <v>46014.30365740741</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23718,7 +23718,7 @@
         <v>44806.52077546297</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23775,7 +23775,7 @@
         <v>45460.62373842593</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23832,7 +23832,7 @@
         <v>46014.38177083333</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23889,7 +23889,7 @@
         <v>45469.41991898148</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23946,7 +23946,7 @@
         <v>46014.45846064815</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24003,7 +24003,7 @@
         <v>45534.41693287037</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24060,7 +24060,7 @@
         <v>46014.44996527778</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24117,7 +24117,7 @@
         <v>45163.30577546296</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24174,7 +24174,7 @@
         <v>45161.82835648148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24231,7 +24231,7 @@
         <v>45660</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24288,7 +24288,7 @@
         <v>45127.46615740741</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>44475.41305555555</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>45411.49608796297</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>45253.34060185185</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>44510.49054398148</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>45268</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>45341.67034722222</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>45355.51554398148</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>45252</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24801,7 +24801,7 @@
         <v>45161.63494212963</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>45541.5005787037</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24915,7 +24915,7 @@
         <v>45541.50634259259</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24972,7 +24972,7 @@
         <v>45079</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>45061.29445601852</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>45748.87611111111</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>45238.51251157407</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>45244</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>45211</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>45301</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>45274.33671296296</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>44872.54512731481</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45008.6652662037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>45104</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45170</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25661,7 +25661,7 @@
         <v>44590.09605324074</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25718,7 +25718,7 @@
         <v>45623.56214120371</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45611.31553240741</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25832,7 +25832,7 @@
         <v>44896.58753472222</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25889,7 +25889,7 @@
         <v>45747.4444212963</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25946,7 +25946,7 @@
         <v>45238.35755787037</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26003,7 +26003,7 @@
         <v>44370.45275462963</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26060,7 +26060,7 @@
         <v>44972</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>45146.40634259259</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>45454.48295138889</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45601</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45253.34175925926</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>45111.42782407408</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26402,7 +26402,7 @@
         <v>45707</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>45029</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>45148.44225694444</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>45708.44949074074</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45160.76854166666</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44942</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26744,7 +26744,7 @@
         <v>44810.66979166667</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45771.91304398148</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26858,7 +26858,7 @@
         <v>45334.66583333333</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26915,7 +26915,7 @@
         <v>45334.66422453704</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26972,7 +26972,7 @@
         <v>45334.66792824074</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27029,7 +27029,7 @@
         <v>45568.48600694445</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27086,7 +27086,7 @@
         <v>45267.44077546296</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>44944.35530092593</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27200,7 +27200,7 @@
         <v>45427.57880787037</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27257,7 +27257,7 @@
         <v>44651.47270833333</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27314,7 +27314,7 @@
         <v>45228.3557175926</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>44964</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>45210.78241898148</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27485,7 +27485,7 @@
         <v>45094.86106481482</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27542,7 +27542,7 @@
         <v>45694.43865740741</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27599,7 +27599,7 @@
         <v>45694.45162037037</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27656,7 +27656,7 @@
         <v>45695.36819444445</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27713,7 +27713,7 @@
         <v>45446.41450231482</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>44839.55789351852</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45623.58572916667</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>45704.62030092593</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27946,7 +27946,7 @@
         <v>45317</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28003,7 +28003,7 @@
         <v>45371.66693287037</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28060,7 +28060,7 @@
         <v>45371.67920138889</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28117,7 +28117,7 @@
         <v>44469</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28174,7 +28174,7 @@
         <v>44830</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28231,7 +28231,7 @@
         <v>45352.62596064815</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28288,7 +28288,7 @@
         <v>45275.64987268519</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28345,7 +28345,7 @@
         <v>44883.33305555556</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28402,7 +28402,7 @@
         <v>45261.3987037037</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         <v>45756.64060185185</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28521,7 +28521,7 @@
         <v>44475.41114583334</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28578,7 +28578,7 @@
         <v>45301.46082175926</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28635,7 +28635,7 @@
         <v>45532.75570601852</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28692,7 +28692,7 @@
         <v>45015.68395833333</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28749,7 +28749,7 @@
         <v>45758</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28811,7 +28811,7 @@
         <v>45334.67164351852</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28868,7 +28868,7 @@
         <v>45754.76953703703</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28925,7 +28925,7 @@
         <v>45118.42115740741</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28982,7 +28982,7 @@
         <v>45685</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29039,7 +29039,7 @@
         <v>45607</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29096,7 +29096,7 @@
         <v>45066.71208333333</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29153,7 +29153,7 @@
         <v>45448.37774305556</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29210,7 +29210,7 @@
         <v>45607.4868287037</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29267,7 +29267,7 @@
         <v>45127.49854166667</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29324,7 +29324,7 @@
         <v>45366</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29381,7 +29381,7 @@
         <v>45748</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29443,7 +29443,7 @@
         <v>45198.39920138889</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29500,7 +29500,7 @@
         <v>45267.43850694445</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29557,7 +29557,7 @@
         <v>45211.70143518518</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29614,7 +29614,7 @@
         <v>45104</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29671,7 +29671,7 @@
         <v>45223.47211805556</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29728,7 +29728,7 @@
         <v>45782.45408564815</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29785,7 +29785,7 @@
         <v>45414.50645833334</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45644</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         <v>45573.69949074074</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29956,7 +29956,7 @@
         <v>45785</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30013,7 +30013,7 @@
         <v>45448.38703703704</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>45646.35680555556</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30127,7 +30127,7 @@
         <v>45725.54928240741</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>45412.58770833333</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30241,7 +30241,7 @@
         <v>45791.405</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30298,7 +30298,7 @@
         <v>45611.62386574074</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>45791.90171296296</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         <v>45791.90017361111</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>45573.36594907408</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30526,7 +30526,7 @@
         <v>45646.64815972222</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30583,7 +30583,7 @@
         <v>45796</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30640,7 +30640,7 @@
         <v>45796</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>

--- a/Översikt SÄVSJÖ.xlsx
+++ b/Översikt SÄVSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45747</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44847</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>45069.67415509259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45756.67384259259</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44572.70938657408</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45722</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45168</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45824.96813657408</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>45170</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>45845.64520833334</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>45981.63106481481</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>45351.68774305555</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>45530.34611111111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45999</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>45217</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>45218.86729166667</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>45719</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44862.47</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44876.42421296296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44358.64619212963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44358.65375</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44370.46506944444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44533.4324537037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44749.55707175926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44370.47137731482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44370.47902777778</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44510.34935185185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44805.46810185185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44855.58278935185</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44349.61519675926</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44433.50209490741</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44809.32931712963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44351</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44374.81724537037</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44573.39283564815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>44603.64659722222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>44420.64608796296</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44405</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>44862.46611111111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44263</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44886.66209490741</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>44862</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>44287.45155092593</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>44532.42516203703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>44397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>44572.71422453703</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>44580.54946759259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>44315.4225</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>44341</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>44826.03600694444</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>44746.50565972222</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>44370</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>44341</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>44448</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>44370.4822337963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         <v>44281</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>44405.85179398148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44433.47172453703</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>44386</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>44608</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>44844.35899305555</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44852.46984953704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>44869.40421296296</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44857.73039351852</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44862</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44582</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44433.42069444444</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44883.29135416666</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44833</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44662.95068287037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44370.42076388889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44853</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>44791</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>44468.59461805555</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44789.39461805556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44357.3718287037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>44412.68837962963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         <v>44790.65711805555</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
         <v>44533.31344907408</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>44565</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44664.33730324074</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>44378</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>44390.35111111111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44502</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44541</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44700</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44812.39266203704</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44624</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44445.44008101852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44377</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44273</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44816.69122685185</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44851</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44789.3846412037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44798.67543981481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44861.34555555556</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>45775.67828703704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44610.5587962963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>45698.92776620371</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>45328.50096064815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>45094.85306712963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>45762.95744212963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>44664.39613425926</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>45086.42130787037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>45755.71290509259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>45252.79550925926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>44888</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>44952</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>45212.41587962963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>45201.37368055555</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>45471.41681712963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>45247.42733796296</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>45715.32950231482</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>45544.31510416666</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>45037.50251157407</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>45761.49188657408</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>45320.77788194444</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>45320</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>45764.60275462963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>45715.32063657408</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>45715.32331018519</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>45350</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
         <v>44988.38030092593</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>45098.32418981481</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>45037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>45733.60925925926</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>45198.36701388889</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>45733.61469907407</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>45534.76076388889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>45548.4799537037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>45785.79543981481</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44476.58135416666</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>45518.38491898148</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>45646.43802083333</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>45727</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>45106.66707175926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>45634.489375</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>45634.49143518518</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>45884.34023148148</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>45646.45358796296</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>45808.25930555556</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>45811.36108796296</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>45726.48827546297</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>45094.85483796296</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>45455.64677083334</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>45321.34763888889</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>45890.44004629629</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>45812.41163194444</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>45812.43444444444</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>45001</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45890.58982638889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>45040</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>45544.31252314815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>45771.32804398148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>45894.43447916667</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>45894.68030092592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>45898.60837962963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>45898.84240740741</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>45898.605625</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44269</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>45901</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>45898.60715277777</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>45898.83424768518</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>45756.81445601852</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>45903.41489583333</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>45905.35075231481</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>45824.99469907407</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>45905.35149305555</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>45905.34934027777</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>45905.35217592592</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44781.37054398148</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>45067.86534722222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>45824.601875</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>45824.96704861111</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>45825</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>45910.52884259259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>45237.31642361111</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>45706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>45706</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>45910.63605324074</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>45915.48857638889</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44447.59116898148</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>45915.48984953704</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>45267.43935185186</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>44509.67083333333</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>45919</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>45831.47387731481</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>45671</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>45228.56903935185</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>45833.57915509259</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>45167.64136574074</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>45460.62232638889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>44957</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>44995.49431712963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>45833.58010416666</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>45833.59445601852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         <v>45832.51432870371</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
         <v>45832.5195949074</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>45833.58096064815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>45834.48545138889</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>45671</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45764.614375</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>45681.38584490741</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>45679</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>45680.43269675926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>45471.41912037037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>45274.66835648148</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>45371.61538194444</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>45102</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>45834.48693287037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>45666.65113425926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>45371.68094907407</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>45931</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         <v>45547</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>45839.45849537037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>45302.62021990741</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44501.40741898148</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>45931</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>45839.44773148148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44838</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>45838</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>45748</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>44893.59326388889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>45365.46722222222</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>44929.3241550926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>45840.46835648148</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>45936.72032407407</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>44866</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>44642</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>45706.31474537037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>45841.62478009259</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>45226</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>45252.79423611111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>45792.82875</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>45524.63298611111</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>45847</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>45845.99798611111</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>45946.47351851852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>45847.87125</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>44991.40253472222</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>44442</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>45951.65298611111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>45418.40288194444</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>45951.65373842593</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>45951.65457175926</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>45211.4318287037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>45110</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44474</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>45762.47472222222</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>45329</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44833.56226851852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>45634.49747685185</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>45953.65167824074</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>45858.81921296296</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>45953.65291666667</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>45433.40761574074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>45953</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>45957.44875</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>45953.82518518518</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>45955.82673611111</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>45953.8241087963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>45534.76524305555</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>45053</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>45954</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>45959.33079861111</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>44991.44572916667</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>45959.33496527778</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>45593.67476851852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>45315.4415625</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>45001.78961805555</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>45315.45684027778</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>45881.67730324074</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44820.49834490741</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>45879.50702546296</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>45879.50917824074</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16947,7 +16947,7 @@
         <v>45015.69268518518</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>45419.46804398148</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>45881.6669212963</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17118,7 +17118,7 @@
         <v>45964</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>45684.66012731481</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17232,7 +17232,7 @@
         <v>45879.50815972222</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>45881.68104166666</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44935</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>45320.77902777777</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>45966.33341435185</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>45966.59887731481</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>45967.32032407408</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>45967.33761574074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>45054.48166666667</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>45882.51918981481</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>45969.44754629629</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>45755.62408564815</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>45694.48425925926</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>45968.29077546296</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>45971.38053240741</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>44935.41263888889</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>45973.39438657407</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>46017.76259259259</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>45975.3618287037</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>45975.36956018519</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>45975.4591087963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44977</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>45110</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>45884.38428240741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>45646</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44951.76560185185</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>45975.46883101852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         <v>45166.62247685185</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
         <v>45884.4650925926</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18900,7 +18900,7 @@
         <v>45884.4655787037</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18957,7 +18957,7 @@
         <v>45975.3566087963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19014,7 +19014,7 @@
         <v>44245</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>45460.62070601852</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>45747.44326388889</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19185,7 +19185,7 @@
         <v>46018.73722222223</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19242,7 +19242,7 @@
         <v>44970</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>45978.33645833333</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>45978.4665625</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>45980.97875</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44866</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>45981.63645833333</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>45981.64012731481</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>45981.6122800926</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>45981.59212962963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>45980.94332175926</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>45771</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>45338</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>45729.44790509259</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>45985.6597800926</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>45673.32414351852</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>45170.45388888889</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>45986.61953703704</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44414</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45632.67087962963</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45632.67179398148</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45534.7590162037</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45986.61049768519</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44886</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45575</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45989</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>45989.45053240741</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>45209.49479166666</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>46017.753125</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>45204</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20900,7 +20900,7 @@
         <v>45197.51347222222</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20957,7 +20957,7 @@
         <v>44656.81189814815</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>45993</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>45407.59642361111</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>45407.6003587963</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45301</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45607.47658564815</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>44285.7033912037</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>44826.60456018519</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21418,7 +21418,7 @@
         <v>45315.41488425926</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         <v>45994.48951388889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21532,7 +21532,7 @@
         <v>45994.49858796296</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21589,7 +21589,7 @@
         <v>44505.25526620371</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21646,7 +21646,7 @@
         <v>45446.40579861111</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21703,7 +21703,7 @@
         <v>45719.83372685185</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>45407.61017361111</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>45669.61686342592</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21874,7 +21874,7 @@
         <v>46001</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21931,7 +21931,7 @@
         <v>46000.67530092593</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
         <v>45607</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22050,7 +22050,7 @@
         <v>45764.83226851852</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22107,7 +22107,7 @@
         <v>45672.43244212963</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44426.77716435185</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>45768.83069444444</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>45226</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>46044.64081018518</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>45067.58128472222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>45240.53201388889</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>45646.39285879629</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>45771.41307870371</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>45546.32325231482</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>46008</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>46008.84853009259</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>44601</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>45755.82981481482</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>46008.31611111111</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>45706.31609953703</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>45084.73050925926</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>45037.50520833334</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>46010.66650462963</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45281</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23262,7 +23262,7 @@
         <v>45728.32645833334</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23319,7 +23319,7 @@
         <v>46010.65158564815</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23376,7 +23376,7 @@
         <v>46010.32060185185</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23433,7 +23433,7 @@
         <v>46010.65725694445</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>45237.35436342593</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>45601.50608796296</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23604,7 +23604,7 @@
         <v>46014.30365740741</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23718,7 +23718,7 @@
         <v>44806.52077546297</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23775,7 +23775,7 @@
         <v>45460.62373842593</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23832,7 +23832,7 @@
         <v>46014.38177083333</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23889,7 +23889,7 @@
         <v>45469.41991898148</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23946,7 +23946,7 @@
         <v>46014.45846064815</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24003,7 +24003,7 @@
         <v>45534.41693287037</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24060,7 +24060,7 @@
         <v>46014.44996527778</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24117,7 +24117,7 @@
         <v>45163.30577546296</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24174,7 +24174,7 @@
         <v>45161.82835648148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24231,7 +24231,7 @@
         <v>45660</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24288,7 +24288,7 @@
         <v>45127.46615740741</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>44475.41305555555</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>45411.49608796297</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>45253.34060185185</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>44510.49054398148</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>45268</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>45341.67034722222</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>45355.51554398148</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>45252</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24801,7 +24801,7 @@
         <v>45161.63494212963</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>45541.5005787037</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24915,7 +24915,7 @@
         <v>45541.50634259259</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24972,7 +24972,7 @@
         <v>45079</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>45061.29445601852</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>45748.87611111111</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>45238.51251157407</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>45244</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>45211</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>45301</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>45274.33671296296</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>44872.54512731481</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45008.6652662037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>45104</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45170</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25661,7 +25661,7 @@
         <v>44590.09605324074</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25718,7 +25718,7 @@
         <v>45623.56214120371</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45611.31553240741</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25832,7 +25832,7 @@
         <v>44896.58753472222</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25889,7 +25889,7 @@
         <v>45747.4444212963</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25946,7 +25946,7 @@
         <v>45238.35755787037</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26003,7 +26003,7 @@
         <v>44370.45275462963</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26060,7 +26060,7 @@
         <v>44972</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>45146.40634259259</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>45454.48295138889</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45601</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45253.34175925926</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>45111.42782407408</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26402,7 +26402,7 @@
         <v>45707</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>45029</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>45148.44225694444</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>45708.44949074074</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45160.76854166666</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44942</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26744,7 +26744,7 @@
         <v>44810.66979166667</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45771.91304398148</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26858,7 +26858,7 @@
         <v>45334.66583333333</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26915,7 +26915,7 @@
         <v>45334.66422453704</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26972,7 +26972,7 @@
         <v>45334.66792824074</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27029,7 +27029,7 @@
         <v>45568.48600694445</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27086,7 +27086,7 @@
         <v>45267.44077546296</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>44944.35530092593</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27200,7 +27200,7 @@
         <v>45427.57880787037</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27257,7 +27257,7 @@
         <v>44651.47270833333</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27314,7 +27314,7 @@
         <v>45228.3557175926</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>44964</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>45210.78241898148</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27485,7 +27485,7 @@
         <v>45094.86106481482</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27542,7 +27542,7 @@
         <v>45694.43865740741</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27599,7 +27599,7 @@
         <v>45694.45162037037</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27656,7 +27656,7 @@
         <v>45695.36819444445</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27713,7 +27713,7 @@
         <v>45446.41450231482</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>44839.55789351852</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45623.58572916667</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>45704.62030092593</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27946,7 +27946,7 @@
         <v>45317</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28003,7 +28003,7 @@
         <v>45371.66693287037</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28060,7 +28060,7 @@
         <v>45371.67920138889</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28117,7 +28117,7 @@
         <v>44469</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28174,7 +28174,7 @@
         <v>44830</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28231,7 +28231,7 @@
         <v>45352.62596064815</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28288,7 +28288,7 @@
         <v>45275.64987268519</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28345,7 +28345,7 @@
         <v>44883.33305555556</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28402,7 +28402,7 @@
         <v>45261.3987037037</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         <v>45756.64060185185</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28521,7 +28521,7 @@
         <v>44475.41114583334</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28578,7 +28578,7 @@
         <v>45301.46082175926</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28635,7 +28635,7 @@
         <v>45532.75570601852</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28692,7 +28692,7 @@
         <v>45015.68395833333</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28749,7 +28749,7 @@
         <v>45758</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28811,7 +28811,7 @@
         <v>45334.67164351852</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28868,7 +28868,7 @@
         <v>45754.76953703703</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28925,7 +28925,7 @@
         <v>45118.42115740741</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28982,7 +28982,7 @@
         <v>45685</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29039,7 +29039,7 @@
         <v>45607</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29096,7 +29096,7 @@
         <v>45066.71208333333</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29153,7 +29153,7 @@
         <v>45448.37774305556</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29210,7 +29210,7 @@
         <v>45607.4868287037</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29267,7 +29267,7 @@
         <v>45127.49854166667</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29324,7 +29324,7 @@
         <v>45366</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29381,7 +29381,7 @@
         <v>45748</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29443,7 +29443,7 @@
         <v>45198.39920138889</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29500,7 +29500,7 @@
         <v>45267.43850694445</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29557,7 +29557,7 @@
         <v>45211.70143518518</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29614,7 +29614,7 @@
         <v>45104</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29671,7 +29671,7 @@
         <v>45223.47211805556</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29728,7 +29728,7 @@
         <v>45782.45408564815</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29785,7 +29785,7 @@
         <v>45414.50645833334</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45644</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         <v>45573.69949074074</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29956,7 +29956,7 @@
         <v>45785</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30013,7 +30013,7 @@
         <v>45448.38703703704</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>45646.35680555556</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30127,7 +30127,7 @@
         <v>45725.54928240741</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>45412.58770833333</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30241,7 +30241,7 @@
         <v>45791.405</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30298,7 +30298,7 @@
         <v>45611.62386574074</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>45791.90171296296</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         <v>45791.90017361111</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>45573.36594907408</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30526,7 +30526,7 @@
         <v>45646.64815972222</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30583,7 +30583,7 @@
         <v>45796</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30640,7 +30640,7 @@
         <v>45796</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
